--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
@@ -31,10 +31,10 @@
     <t>l4Sp</t>
   </si>
   <si>
+    <t>l10Sp</t>
+  </si>
+  <si>
     <t>l6Sp</t>
-  </si>
-  <si>
-    <t>l10Sp</t>
   </si>
   <si>
     <t>l9Sp</t>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
@@ -31,10 +31,10 @@
     <t>l4Sp</t>
   </si>
   <si>
+    <t>l6Sp</t>
+  </si>
+  <si>
     <t>l10Sp</t>
-  </si>
-  <si>
-    <t>l6Sp</t>
   </si>
   <si>
     <t>l9Sp</t>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL-groupby-dist-1_unmapped-BC-analysis.xlsx
@@ -43,10 +43,10 @@
     <t>l3Sp</t>
   </si>
   <si>
+    <t>l1Sp</t>
+  </si>
+  <si>
     <t>l8Sp</t>
-  </si>
-  <si>
-    <t>l1Sp</t>
   </si>
   <si>
     <t>l2Sp</t>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
